--- a/Analyzed/try6/data_2013.xlsx
+++ b/Analyzed/try6/data_2013.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>62.81791446644243</v>
       </c>
       <c r="N2">
-        <v>123.48</v>
+        <v>410.256</v>
       </c>
       <c r="O2">
-        <v>924.38</v>
+        <v>-125.62</v>
       </c>
       <c r="P2">
-        <v>469.3518</v>
+        <v>378.4864703314096</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -571,28 +576,31 @@
         <v>6</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X2">
         <v>4</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -638,13 +646,13 @@
         <v>62.92405838840959</v>
       </c>
       <c r="N3">
-        <v>17.52799999999998</v>
+        <v>401.072</v>
       </c>
       <c r="O3">
-        <v>1163.22</v>
+        <v>-186.78</v>
       </c>
       <c r="P3">
-        <v>422.7145704</v>
+        <v>330.6429494439307</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -662,27 +670,30 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
         <v>1</v>
       </c>
     </row>
@@ -729,13 +740,13 @@
         <v>60.24734961757748</v>
       </c>
       <c r="N4">
-        <v>214.956</v>
+        <v>436.0720000000001</v>
       </c>
       <c r="O4">
-        <v>922.76</v>
+        <v>-77.23999999999999</v>
       </c>
       <c r="P4">
-        <v>475.6356504</v>
+        <v>388.8936082530356</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -756,16 +767,16 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>4</v>
@@ -775,6 +786,9 @@
       </c>
       <c r="AC4">
         <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>59.11317441018036</v>
       </c>
       <c r="N5">
-        <v>183.82</v>
+        <v>388.248</v>
       </c>
       <c r="O5">
-        <v>814.37</v>
+        <v>-85.63</v>
       </c>
       <c r="P5">
-        <v>475.6400567999999</v>
+        <v>385.6780722298455</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -847,16 +861,16 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -865,6 +879,9 @@
         <v>1</v>
       </c>
       <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
         <v>1</v>
       </c>
     </row>
@@ -911,13 +928,13 @@
         <v>70.40450043334661</v>
       </c>
       <c r="N6">
-        <v>167.328</v>
+        <v>378.168</v>
       </c>
       <c r="O6">
-        <v>901.55</v>
+        <v>-98.45</v>
       </c>
       <c r="P6">
-        <v>499.7738016</v>
+        <v>425.2252262416092</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -935,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>2</v>
@@ -944,19 +961,22 @@
         <v>4</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>74.31439141913705</v>
       </c>
       <c r="N7">
-        <v>14.53200000000001</v>
+        <v>341.0960000000001</v>
       </c>
       <c r="O7">
-        <v>887.38</v>
+        <v>-162.62</v>
       </c>
       <c r="P7">
-        <v>478.96596</v>
+        <v>386.0857088574973</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1026,28 +1046,31 @@
         <v>4</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>2</v>
       </c>
       <c r="X7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>4</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1093,13 +1116,13 @@
         <v>66.4588669904745</v>
       </c>
       <c r="N8">
-        <v>51.74400000000001</v>
+        <v>325.472</v>
       </c>
       <c r="O8">
-        <v>968.5</v>
+        <v>-131.5</v>
       </c>
       <c r="P8">
-        <v>462.1089528</v>
+        <v>369.77540210516</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1117,27 +1140,30 @@
         <v>2</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>0</v>
       </c>
     </row>
@@ -1184,13 +1210,13 @@
         <v>69.86568694135343</v>
       </c>
       <c r="N9">
-        <v>87.47200000000002</v>
+        <v>331.6320000000001</v>
       </c>
       <c r="O9">
-        <v>1008.89</v>
+        <v>-141.11</v>
       </c>
       <c r="P9">
-        <v>392.5163664</v>
+        <v>270.5526114681323</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,28 +1234,31 @@
         <v>4</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1275,13 +1304,13 @@
         <v>81.41516103104638</v>
       </c>
       <c r="N10">
-        <v>96.29200000000002</v>
+        <v>274.288</v>
       </c>
       <c r="O10">
-        <v>964.05</v>
+        <v>-135.95</v>
       </c>
       <c r="P10">
-        <v>436.1667264</v>
+        <v>330.280144475078</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1299,28 +1328,31 @@
         <v>8</v>
       </c>
       <c r="V10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
